--- a/Code/Results/Cases/Case_2_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_202/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9407910425733803</v>
+        <v>0.3097678110427751</v>
       </c>
       <c r="C2">
-        <v>0.1663588359563732</v>
+        <v>0.05372333215592562</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.387380386879755</v>
+        <v>0.41800318993063</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007946327646595566</v>
+        <v>0.002411376888213563</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1877720931293752</v>
+        <v>0.4307230857009898</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.046588061565615</v>
+        <v>0.3267177242355785</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6125150250326428</v>
+        <v>1.179559757958838</v>
       </c>
       <c r="O2">
-        <v>1.003322798813414</v>
+        <v>1.91791305151223</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.81816200811204</v>
+        <v>0.2727858857300021</v>
       </c>
       <c r="C3">
-        <v>0.1459172375156186</v>
+        <v>0.04746014237262841</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.193130163501209</v>
+        <v>0.3647724438965838</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007981761967095677</v>
+        <v>0.002413605453381719</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1921416690406161</v>
+        <v>0.4357572175710089</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9111739241012629</v>
+        <v>0.2856613219461792</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6438328228451375</v>
+        <v>1.192673224353818</v>
       </c>
       <c r="O3">
-        <v>0.9845284933225429</v>
+        <v>1.931545568098173</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7430105544326295</v>
+        <v>0.2500647799018054</v>
       </c>
       <c r="C4">
-        <v>0.1334087798718144</v>
+        <v>0.04359434711180654</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.07578473958219</v>
+        <v>0.3321659454530561</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0008004149840425888</v>
+        <v>0.00241504506506099</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1953909048555076</v>
+        <v>0.4391146096214591</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8282056779589766</v>
+        <v>0.2604078710094768</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6639905773754116</v>
+        <v>1.201175816187089</v>
       </c>
       <c r="O4">
-        <v>0.9759602092890276</v>
+        <v>1.94121724142903</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7124093147779149</v>
+        <v>0.2408026504438681</v>
       </c>
       <c r="C5">
-        <v>0.128318849449343</v>
+        <v>0.04201394151434101</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.028377186674845</v>
+        <v>0.3188965596776683</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008013436154218132</v>
+        <v>0.002415649694157851</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1968506709800728</v>
+        <v>0.4405496746317539</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7944244375870966</v>
+        <v>0.2501060494026603</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6724322463777384</v>
+        <v>1.204754071335945</v>
       </c>
       <c r="O5">
-        <v>0.9731728649066582</v>
+        <v>1.945485154583992</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7073290790675628</v>
+        <v>0.2392645069968466</v>
       </c>
       <c r="C6">
-        <v>0.1274740210608485</v>
+        <v>0.04175121089608069</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.020528049342047</v>
+        <v>0.316694235281048</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008014988113382971</v>
+        <v>0.002415751179725993</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1971010689657291</v>
+        <v>0.4407920040331206</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7888164089521297</v>
+        <v>0.2483947969808327</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6738475261121906</v>
+        <v>1.205355085947922</v>
       </c>
       <c r="O6">
-        <v>0.9727513593456081</v>
+        <v>1.946213548820523</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7425977757483508</v>
+        <v>0.249939879529876</v>
       </c>
       <c r="C7">
-        <v>0.133340109755693</v>
+        <v>0.04357305369393316</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.075143809644047</v>
+        <v>0.3319869187683651</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.000800427441252966</v>
+        <v>0.002415053146602443</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1954100510385679</v>
+        <v>0.4391336926551901</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8277499945540683</v>
+        <v>0.260268980389526</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6641035126853083</v>
+        <v>1.201223614711353</v>
       </c>
       <c r="O7">
-        <v>0.9759198213801028</v>
+        <v>1.941273478274283</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8984710332871373</v>
+        <v>0.2970196122463733</v>
       </c>
       <c r="C8">
-        <v>0.1592995740749927</v>
+        <v>0.05156797474487007</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.319957986579865</v>
+        <v>0.3996322856658026</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007958417152859034</v>
+        <v>0.002412130540255862</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1891570232511555</v>
+        <v>0.4324035049595629</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9998509733905507</v>
+        <v>0.3125709678038504</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6231168235548168</v>
+        <v>1.183987706509555</v>
       </c>
       <c r="O8">
-        <v>0.9961991639675176</v>
+        <v>1.922343114778386</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.205894183693175</v>
+        <v>0.389216527157231</v>
       </c>
       <c r="C9">
-        <v>0.2107139334149934</v>
+        <v>0.06708627123121857</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.818906618886118</v>
+        <v>0.5329696169925171</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007873284687857444</v>
+        <v>0.002406962212590887</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1817109881259888</v>
+        <v>0.4213236290494926</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.339508405168857</v>
+        <v>0.4147684117178869</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.550406715194903</v>
+        <v>1.153765037388027</v>
       </c>
       <c r="O9">
-        <v>1.061616426372041</v>
+        <v>1.895573103188553</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.433782974989441</v>
+        <v>0.4568634257641975</v>
       </c>
       <c r="C10">
-        <v>0.2490584763962858</v>
+        <v>0.07839175826399014</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.202553338418753</v>
+        <v>0.6314571581954311</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.000781333714004487</v>
+        <v>0.002403504611052366</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1796576242645855</v>
+        <v>0.414480119320455</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.591558463257599</v>
+        <v>0.4896202519636574</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5020973995040414</v>
+        <v>1.133739751667484</v>
       </c>
       <c r="O10">
-        <v>1.128423341476662</v>
+        <v>1.882256113145161</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.53813037110433</v>
+        <v>0.4876158002136037</v>
       </c>
       <c r="C11">
-        <v>0.266691645457982</v>
+        <v>0.08351452198242271</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.38220374234443</v>
+        <v>0.6763992865148651</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.000778655095872216</v>
+        <v>0.00240200462779828</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.179582277089267</v>
+        <v>0.4116496728655221</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.707058714903496</v>
+        <v>0.5236203150533925</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4813354646546806</v>
+        <v>1.125102722915369</v>
       </c>
       <c r="O11">
-        <v>1.163644543632529</v>
+        <v>1.877585682767602</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.577762973324809</v>
+        <v>0.4992576198761753</v>
       </c>
       <c r="C12">
-        <v>0.273402262770972</v>
+        <v>0.0854514892624394</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.451103953646168</v>
+        <v>0.6934395173588825</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007776470184107647</v>
+        <v>0.002401447048140348</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.179687945822284</v>
+        <v>0.4106186151233118</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.750943241725849</v>
+        <v>0.5364877133582695</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4736577601926513</v>
+        <v>1.121900072754674</v>
       </c>
       <c r="O12">
-        <v>1.177746299353629</v>
+        <v>1.87601733701581</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.569221760213452</v>
+        <v>0.4967505062640782</v>
       </c>
       <c r="C13">
-        <v>0.2719554269019255</v>
+        <v>0.08503445842788437</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.436224050865434</v>
+        <v>0.6897686124494697</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007778638595624164</v>
+        <v>0.002401566669665315</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1796590387932646</v>
+        <v>0.4108388566590548</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.741484938298811</v>
+        <v>0.5337168377752732</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4753029262702348</v>
+        <v>1.122586795394188</v>
       </c>
       <c r="O13">
-        <v>1.174674065772848</v>
+        <v>1.876346190902211</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.541388467890499</v>
+        <v>0.4885736513741676</v>
       </c>
       <c r="C14">
-        <v>0.2672430275519844</v>
+        <v>0.08367393588342509</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.38785393784724</v>
+        <v>0.6778007543532709</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007785720396624368</v>
+        <v>0.002401958546701612</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1795882161920481</v>
+        <v>0.4115640293317924</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.710666014684421</v>
+        <v>0.5246790802323744</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4807000610164032</v>
+        <v>1.124837875738098</v>
       </c>
       <c r="O14">
-        <v>1.164788965034688</v>
+        <v>1.877452636682989</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.52435585670537</v>
+        <v>0.4835646297084679</v>
       </c>
       <c r="C15">
-        <v>0.2643610750068461</v>
+        <v>0.08284019690651689</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.358343437582107</v>
+        <v>0.6704729574810528</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007790066131530625</v>
+        <v>0.002402199939539621</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1795626463003863</v>
+        <v>0.412013531646803</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.691808508183811</v>
+        <v>0.519142178640152</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4840302785656903</v>
+        <v>1.126225585258918</v>
       </c>
       <c r="O15">
-        <v>1.158835759535179</v>
+        <v>1.878156465862105</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.426979034543422</v>
+        <v>0.4548532310957398</v>
       </c>
       <c r="C16">
-        <v>0.2479104289128884</v>
+        <v>0.07805656680753259</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.190926967912944</v>
+        <v>0.6285230259818633</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007815096835630408</v>
+        <v>0.00240360410073442</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1796807233792279</v>
+        <v>0.4146707944610455</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.584029353905891</v>
+        <v>0.4873972159168716</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5034794931478608</v>
+        <v>1.134313715369657</v>
       </c>
       <c r="O16">
-        <v>1.126224563595713</v>
+        <v>1.882589318892173</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.367429750248363</v>
+        <v>0.4372341128662356</v>
       </c>
       <c r="C17">
-        <v>0.2378712272015946</v>
+        <v>0.07511679184311504</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.08962556422982</v>
+        <v>0.6028249622794988</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007830571570466336</v>
+        <v>0.002404484142631002</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1799804405357435</v>
+        <v>0.4163734299290276</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.518143610393849</v>
+        <v>0.4679094848360705</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5157286718311553</v>
+        <v>1.139396592998729</v>
       </c>
       <c r="O17">
-        <v>1.107503433247757</v>
+        <v>1.885664622197254</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.333241192141031</v>
+        <v>0.4270981576518125</v>
       </c>
       <c r="C18">
-        <v>0.2321144366936068</v>
+        <v>0.07342401434047474</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.031833459955365</v>
+        <v>0.5880571676569986</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007839518270365748</v>
+        <v>0.002404997183612171</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1802329646297345</v>
+        <v>0.4173793427696566</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.480325363992733</v>
+        <v>0.4566959381816673</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5228877335419462</v>
+        <v>1.1423646074945</v>
       </c>
       <c r="O18">
-        <v>1.097185669500618</v>
+        <v>1.88756401346879</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.321675686800063</v>
+        <v>0.4236659850529634</v>
       </c>
       <c r="C19">
-        <v>0.2301681186219895</v>
+        <v>0.07285054361749133</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.012343614684013</v>
+        <v>0.5830592410652997</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007842555580889199</v>
+        <v>0.0024051720710453</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1803319165609132</v>
+        <v>0.4177244928726935</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.467533310919919</v>
+        <v>0.4528984268178249</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5253309038392722</v>
+        <v>1.143377163846331</v>
       </c>
       <c r="O19">
-        <v>1.093767542450053</v>
+        <v>1.888229516366039</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.373762248558762</v>
+        <v>0.4391098986885424</v>
       </c>
       <c r="C20">
-        <v>0.2389380655855007</v>
+        <v>0.07542993230534023</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.100359322176075</v>
+        <v>0.6055592030983092</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007828919542573646</v>
+        <v>0.002404389750487702</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1799401668134308</v>
+        <v>0.4161894274131939</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.525149059411689</v>
+        <v>0.4699844786741494</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.514412894201989</v>
+        <v>1.138850908368529</v>
       </c>
       <c r="O20">
-        <v>1.109449257756324</v>
+        <v>1.885323733425565</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.549560388685052</v>
+        <v>0.4909754889945646</v>
       </c>
       <c r="C21">
-        <v>0.268626218176891</v>
+        <v>0.0840736334732668</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.402036646018402</v>
+        <v>0.6813154052249786</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.000778363866199192</v>
+        <v>0.002401843160247965</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1796052862444206</v>
+        <v>0.4113499210780702</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.719714066722787</v>
+        <v>0.5273339008257665</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4791097055721885</v>
+        <v>1.12417483282043</v>
       </c>
       <c r="O21">
-        <v>1.167671130243974</v>
+        <v>1.877122206400372</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.66515652352723</v>
+        <v>0.524852392949839</v>
       </c>
       <c r="C22">
-        <v>0.28822662259563</v>
+        <v>0.08970581173363712</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.60434803304841</v>
+        <v>0.7309532169787474</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007754405910297294</v>
+        <v>0.002400239594024163</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1801743209393827</v>
+        <v>0.4084247235444529</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.847744939952065</v>
+        <v>0.5647700516634018</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4571169096614121</v>
+        <v>1.114979580718654</v>
       </c>
       <c r="O22">
-        <v>1.210214214408239</v>
+        <v>1.872929550886141</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.603389066971914</v>
+        <v>0.5067736647141317</v>
       </c>
       <c r="C23">
-        <v>0.2777452921622086</v>
+        <v>0.0867013701528947</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.495851289421893</v>
+        <v>0.7044484724931408</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007769977471835943</v>
+        <v>0.002401089903044502</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1797947316584647</v>
+        <v>0.4099641675476775</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.779323401091261</v>
+        <v>0.544793936299925</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4687526296408819</v>
+        <v>1.119850970861492</v>
       </c>
       <c r="O23">
-        <v>1.187072451789589</v>
+        <v>1.875060183742221</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.370899180853854</v>
+        <v>0.4382618760957939</v>
       </c>
       <c r="C24">
-        <v>0.2384557020479718</v>
+        <v>0.07528836979298603</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.095505206447498</v>
+        <v>0.6043230331439418</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007829666268518215</v>
+        <v>0.002404432403073454</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1799581255174196</v>
+        <v>0.4162725307133321</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.521981709888649</v>
+        <v>0.4690464044246028</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5150073940509223</v>
+        <v>1.139097469721605</v>
       </c>
       <c r="O24">
-        <v>1.108568168787002</v>
+        <v>1.885477440105802</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.122446346317844</v>
+        <v>0.3642897083277319</v>
       </c>
       <c r="C25">
-        <v>0.1967251932700975</v>
+        <v>0.0629050999815064</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.681368054361201</v>
+        <v>0.4968139809892165</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007895833904896232</v>
+        <v>0.002408300492604928</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1831622806510111</v>
+        <v>0.4240936972118057</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.247274102403196</v>
+        <v>0.3871614929263387</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5692128694974059</v>
+        <v>1.161558282986704</v>
       </c>
       <c r="O25">
-        <v>1.040867476546239</v>
+        <v>1.901702702176976</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_202/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3097678110427751</v>
+        <v>0.9407910425732666</v>
       </c>
       <c r="C2">
-        <v>0.05372333215592562</v>
+        <v>0.1663588359564017</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.41800318993063</v>
+        <v>1.387380386879741</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002411376888213563</v>
+        <v>0.0007946327646596111</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4307230857009898</v>
+        <v>0.1877720931293787</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3267177242355785</v>
+        <v>1.046588061565444</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.179559757958838</v>
+        <v>0.6125150250326499</v>
       </c>
       <c r="O2">
-        <v>1.91791305151223</v>
+        <v>1.003322798813358</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2727858857300021</v>
+        <v>0.8181620081120116</v>
       </c>
       <c r="C3">
-        <v>0.04746014237262841</v>
+        <v>0.1459172375158317</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3647724438965838</v>
+        <v>1.193130163501209</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002413605453381719</v>
+        <v>0.0007981761966922193</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4357572175710089</v>
+        <v>0.1921416690406197</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2856613219461792</v>
+        <v>0.9111739241012913</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.192673224353818</v>
+        <v>0.6438328228451411</v>
       </c>
       <c r="O3">
-        <v>1.931545568098173</v>
+        <v>0.9845284933226139</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2500647799018054</v>
+        <v>0.7430105544326011</v>
       </c>
       <c r="C4">
-        <v>0.04359434711180654</v>
+        <v>0.1334087798717718</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3321659454530561</v>
+        <v>1.075784739582218</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.00241504506506099</v>
+        <v>0.0008004149839833108</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4391146096214591</v>
+        <v>0.1953909048555005</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2604078710094768</v>
+        <v>0.828205677959005</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.201175816187089</v>
+        <v>0.6639905773753974</v>
       </c>
       <c r="O4">
-        <v>1.94121724142903</v>
+        <v>0.9759602092890276</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2408026504438681</v>
+        <v>0.7124093147778012</v>
       </c>
       <c r="C5">
-        <v>0.04201394151434101</v>
+        <v>0.1283188494495562</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3188965596776683</v>
+        <v>1.028377186674888</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002415649694157851</v>
+        <v>0.0008013436154791757</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4405496746317539</v>
+        <v>0.1968506709800728</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2501060494026603</v>
+        <v>0.7944244375871392</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.204754071335945</v>
+        <v>0.6724322463777384</v>
       </c>
       <c r="O5">
-        <v>1.945485154583992</v>
+        <v>0.9731728649067151</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2392645069968466</v>
+        <v>0.7073290790676765</v>
       </c>
       <c r="C6">
-        <v>0.04175121089608069</v>
+        <v>0.1274740210610901</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.316694235281048</v>
+        <v>1.020528049342047</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002415751179725993</v>
+        <v>0.0008014988112788185</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4407920040331206</v>
+        <v>0.1971010689657291</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2483947969808327</v>
+        <v>0.7888164089521013</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.205355085947922</v>
+        <v>0.673847526112187</v>
       </c>
       <c r="O6">
-        <v>1.946213548820523</v>
+        <v>0.9727513593456223</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.249939879529876</v>
+        <v>0.742597775748095</v>
       </c>
       <c r="C7">
-        <v>0.04357305369393316</v>
+        <v>0.1333401097558635</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3319869187683651</v>
+        <v>1.075143809644061</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002415053146602443</v>
+        <v>0.000800427441310983</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4391336926551901</v>
+        <v>0.1954100510385643</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.260268980389526</v>
+        <v>0.8277499945540683</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.201223614711353</v>
+        <v>0.6641035126853083</v>
       </c>
       <c r="O7">
-        <v>1.941273478274283</v>
+        <v>0.975919821380117</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2970196122463733</v>
+        <v>0.8984710332873931</v>
       </c>
       <c r="C8">
-        <v>0.05156797474487007</v>
+        <v>0.1592995740752485</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3996322856658026</v>
+        <v>1.319957986579851</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002412130540255862</v>
+        <v>0.0007958417152454418</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4324035049595629</v>
+        <v>0.189157023251159</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3125709678038504</v>
+        <v>0.9998509733905223</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.183987706509555</v>
+        <v>0.6231168235547528</v>
       </c>
       <c r="O8">
-        <v>1.922343114778386</v>
+        <v>0.9961991639675176</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.389216527157231</v>
+        <v>1.205894183693289</v>
       </c>
       <c r="C9">
-        <v>0.06708627123121857</v>
+        <v>0.2107139334149934</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5329696169925171</v>
+        <v>1.818906618886089</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002406962212590887</v>
+        <v>0.0007873284687848367</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4213236290494926</v>
+        <v>0.1817109881259888</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4147684117178869</v>
+        <v>1.339508405168857</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.153765037388027</v>
+        <v>0.5504067151948959</v>
       </c>
       <c r="O9">
-        <v>1.895573103188553</v>
+        <v>1.061616426372026</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4568634257641975</v>
+        <v>1.433782974989441</v>
       </c>
       <c r="C10">
-        <v>0.07839175826399014</v>
+        <v>0.2490584763961294</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6314571581954311</v>
+        <v>2.202553338418753</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002403504611052366</v>
+        <v>0.0007813337140039182</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.414480119320455</v>
+        <v>0.1796576242645784</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4896202519636574</v>
+        <v>1.591558463257485</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.133739751667484</v>
+        <v>0.5020973995040805</v>
       </c>
       <c r="O10">
-        <v>1.882256113145161</v>
+        <v>1.128423341476662</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4876158002136037</v>
+        <v>1.538130371104188</v>
       </c>
       <c r="C11">
-        <v>0.08351452198242271</v>
+        <v>0.2666916454576835</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6763992865148651</v>
+        <v>2.382203742344387</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.00240200462779828</v>
+        <v>0.0007786550959498419</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4116496728655221</v>
+        <v>0.1795822770892812</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5236203150533925</v>
+        <v>1.707058714903553</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.125102722915369</v>
+        <v>0.4813354646546806</v>
       </c>
       <c r="O11">
-        <v>1.877585682767602</v>
+        <v>1.163644543632586</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4992576198761753</v>
+        <v>1.577762973324838</v>
       </c>
       <c r="C12">
-        <v>0.0854514892624394</v>
+        <v>0.273402262770972</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6934395173588825</v>
+        <v>2.451103953646211</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002401447048140348</v>
+        <v>0.0007776470184107884</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4106186151233118</v>
+        <v>0.1796879458222804</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5364877133582695</v>
+        <v>1.750943241725849</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.121900072754674</v>
+        <v>0.4736577601927046</v>
       </c>
       <c r="O12">
-        <v>1.87601733701581</v>
+        <v>1.177746299353601</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4967505062640782</v>
+        <v>1.569221760213566</v>
       </c>
       <c r="C13">
-        <v>0.08503445842788437</v>
+        <v>0.2719554269017976</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6897686124494697</v>
+        <v>2.436224050865434</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002401566669665315</v>
+        <v>0.0007778638595970218</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4108388566590548</v>
+        <v>0.1796590387932646</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5337168377752732</v>
+        <v>1.741484938298782</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.122586795394188</v>
+        <v>0.4753029262702064</v>
       </c>
       <c r="O13">
-        <v>1.876346190902211</v>
+        <v>1.174674065772791</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4885736513741676</v>
+        <v>1.541388467890414</v>
       </c>
       <c r="C14">
-        <v>0.08367393588342509</v>
+        <v>0.2672430275516149</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6778007543532709</v>
+        <v>2.387853937847211</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002401958546701612</v>
+        <v>0.0007785720396626579</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4115640293317924</v>
+        <v>0.1795882161920446</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5246790802323744</v>
+        <v>1.710666014684421</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.124837875738098</v>
+        <v>0.4807000610163961</v>
       </c>
       <c r="O14">
-        <v>1.877452636682989</v>
+        <v>1.164788965034688</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4835646297084679</v>
+        <v>1.524355856705455</v>
       </c>
       <c r="C15">
-        <v>0.08284019690651689</v>
+        <v>0.2643610750072583</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6704729574810528</v>
+        <v>2.358343437582121</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002402199939539621</v>
+        <v>0.0007790066131529934</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.412013531646803</v>
+        <v>0.1795626463003828</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.519142178640152</v>
+        <v>1.691808508183954</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.126225585258918</v>
+        <v>0.4840302785656228</v>
       </c>
       <c r="O15">
-        <v>1.878156465862105</v>
+        <v>1.158835759535236</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4548532310957398</v>
+        <v>1.42697903454345</v>
       </c>
       <c r="C16">
-        <v>0.07805656680753259</v>
+        <v>0.2479104289128884</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6285230259818633</v>
+        <v>2.190926967912958</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.00240360410073442</v>
+        <v>0.0007815096835422796</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4146707944610455</v>
+        <v>0.1796807233792421</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4873972159168716</v>
+        <v>1.584029353906033</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.134313715369657</v>
+        <v>0.5034794931478608</v>
       </c>
       <c r="O16">
-        <v>1.882589318892173</v>
+        <v>1.126224563595713</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4372341128662356</v>
+        <v>1.367429750248448</v>
       </c>
       <c r="C17">
-        <v>0.07511679184311504</v>
+        <v>0.2378712272019072</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6028249622794988</v>
+        <v>2.089625564229806</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002404484142631002</v>
+        <v>0.0007830571571259506</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4163734299290276</v>
+        <v>0.1799804405357399</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4679094848360705</v>
+        <v>1.518143610393963</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.139396592998729</v>
+        <v>0.5157286718311447</v>
       </c>
       <c r="O17">
-        <v>1.885664622197254</v>
+        <v>1.107503433247814</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4270981576518125</v>
+        <v>1.333241192141088</v>
       </c>
       <c r="C18">
-        <v>0.07342401434047474</v>
+        <v>0.2321144366935641</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5880571676569986</v>
+        <v>2.031833459955365</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002404997183612171</v>
+        <v>0.0007839518270367264</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4173793427696566</v>
+        <v>0.1802329646297132</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4566959381816673</v>
+        <v>1.480325363992733</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.1423646074945</v>
+        <v>0.5228877335418787</v>
       </c>
       <c r="O18">
-        <v>1.88756401346879</v>
+        <v>1.09718566950059</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4236659850529634</v>
+        <v>1.321675686800063</v>
       </c>
       <c r="C19">
-        <v>0.07285054361749133</v>
+        <v>0.2301681186222169</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5830592410652997</v>
+        <v>2.012343614683985</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0024051720710453</v>
+        <v>0.000784255558030676</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4177244928726935</v>
+        <v>0.180331916560899</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4528984268178249</v>
+        <v>1.467533310919919</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.143377163846331</v>
+        <v>0.5253309038392153</v>
       </c>
       <c r="O19">
-        <v>1.888229516366039</v>
+        <v>1.093767542450053</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4391098986885424</v>
+        <v>1.373762248558762</v>
       </c>
       <c r="C20">
-        <v>0.07542993230534023</v>
+        <v>0.2389380655852875</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6055592030983092</v>
+        <v>2.100359322176075</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002404389750487702</v>
+        <v>0.0007828919541993004</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4161894274131939</v>
+        <v>0.1799401668134273</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4699844786741494</v>
+        <v>1.525149059411689</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.138850908368529</v>
+        <v>0.514412894201989</v>
       </c>
       <c r="O20">
-        <v>1.885323733425565</v>
+        <v>1.109449257756353</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4909754889945646</v>
+        <v>1.549560388685023</v>
       </c>
       <c r="C21">
-        <v>0.0840736334732668</v>
+        <v>0.2686262181765642</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6813154052249786</v>
+        <v>2.402036646018374</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002401843160247965</v>
+        <v>0.0007783638661409167</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4113499210780702</v>
+        <v>0.1796052862444348</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5273339008257665</v>
+        <v>1.719714066722844</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.12417483282043</v>
+        <v>0.4791097055721885</v>
       </c>
       <c r="O21">
-        <v>1.877122206400372</v>
+        <v>1.167671130244059</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.524852392949839</v>
+        <v>1.665156523527259</v>
       </c>
       <c r="C22">
-        <v>0.08970581173363712</v>
+        <v>0.2882266225954737</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7309532169787474</v>
+        <v>2.604348033048439</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002400239594024163</v>
+        <v>0.0007754405910509357</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4084247235444529</v>
+        <v>0.1801743209393791</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5647700516634018</v>
+        <v>1.847744939952207</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.114979580718654</v>
+        <v>0.4571169096614618</v>
       </c>
       <c r="O22">
-        <v>1.872929550886141</v>
+        <v>1.210214214408353</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5067736647141317</v>
+        <v>1.603389066971772</v>
       </c>
       <c r="C23">
-        <v>0.0867013701528947</v>
+        <v>0.2777452921622086</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7044484724931408</v>
+        <v>2.495851289421935</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002401089903044502</v>
+        <v>0.0007769977471828767</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4099641675476775</v>
+        <v>0.1797947316584612</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.544793936299925</v>
+        <v>1.779323401091062</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.119850970861492</v>
+        <v>0.4687526296408677</v>
       </c>
       <c r="O23">
-        <v>1.875060183742221</v>
+        <v>1.187072451789504</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4382618760957939</v>
+        <v>1.370899180853769</v>
       </c>
       <c r="C24">
-        <v>0.07528836979298603</v>
+        <v>0.2384557020478013</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6043230331439418</v>
+        <v>2.095505206447527</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002404432403073454</v>
+        <v>0.0007829666267936785</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4162725307133321</v>
+        <v>0.1799581255173983</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4690464044246028</v>
+        <v>1.521981709888735</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.139097469721605</v>
+        <v>0.515007394050965</v>
       </c>
       <c r="O24">
-        <v>1.885477440105802</v>
+        <v>1.108568168787059</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3642897083277319</v>
+        <v>1.122446346317872</v>
       </c>
       <c r="C25">
-        <v>0.0629050999815064</v>
+        <v>0.1967251932698701</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4968139809892165</v>
+        <v>1.681368054361187</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002408300492604928</v>
+        <v>0.0007895833905285707</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4240936972118057</v>
+        <v>0.1831622806510111</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3871614929263387</v>
+        <v>1.247274102403338</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.161558282986704</v>
+        <v>0.5692128694974627</v>
       </c>
       <c r="O25">
-        <v>1.901702702176976</v>
+        <v>1.040867476546282</v>
       </c>
     </row>
   </sheetData>
